--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43039,6 +43039,41 @@
         <v>37000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>106200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43074,6 +43074,41 @@
         <v>106200</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>20400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43109,6 +43109,41 @@
         <v>20400</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>36900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43144,6 +43144,41 @@
         <v>36900</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>93000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43179,6 +43179,41 @@
         <v>93000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>44400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43214,6 +43214,41 @@
         <v>44400</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>51500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43249,6 +43249,41 @@
         <v>51500</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>7500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43284,6 +43284,41 @@
         <v>7500</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>62000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43319,6 +43319,41 @@
         <v>62000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>34600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43354,6 +43354,41 @@
         <v>34600</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>314700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43389,6 +43389,41 @@
         <v>314700</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>70800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43424,6 +43424,41 @@
         <v>70800</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>74700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43459,6 +43459,76 @@
         <v>74700</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>25700</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>675400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43529,6 +43529,76 @@
         <v>675400</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>221100</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>140000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43599,6 +43599,41 @@
         <v>140000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>40400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43634,6 +43634,41 @@
         <v>40400</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>274300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43669,6 +43669,41 @@
         <v>274300</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>76800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43704,6 +43704,41 @@
         <v>76800</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>617300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43739,6 +43739,76 @@
         <v>617300</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>186300</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>197100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43809,6 +43809,41 @@
         <v>197100</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>422600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43844,6 +43844,41 @@
         <v>422600</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>149500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2506"/>
+  <dimension ref="A1:I2507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88154,6 +88154,41 @@
         <v>149500</v>
       </c>
     </row>
+    <row r="2507">
+      <c r="A2507" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2507" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2507" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D2507" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E2507" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F2507" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G2507" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H2507" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I2507" t="n">
+        <v>356900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2507"/>
+  <dimension ref="A1:I2508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88189,6 +88189,41 @@
         <v>356900</v>
       </c>
     </row>
+    <row r="2508">
+      <c r="A2508" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2508" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2508" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D2508" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E2508" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2508" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2508" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H2508" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I2508" t="n">
+        <v>181900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2508"/>
+  <dimension ref="A1:I2509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88224,6 +88224,41 @@
         <v>181900</v>
       </c>
     </row>
+    <row r="2509">
+      <c r="A2509" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2509" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2509" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D2509" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E2509" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2509" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G2509" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H2509" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I2509" t="n">
+        <v>299600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2509"/>
+  <dimension ref="A1:I2510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88259,6 +88259,41 @@
         <v>299600</v>
       </c>
     </row>
+    <row r="2510">
+      <c r="A2510" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2510" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2510" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D2510" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E2510" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2510" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G2510" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H2510" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I2510" t="n">
+        <v>492200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2510"/>
+  <dimension ref="A1:I2511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88294,6 +88294,41 @@
         <v>492200</v>
       </c>
     </row>
+    <row r="2511">
+      <c r="A2511" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2511" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2511" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D2511" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E2511" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F2511" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2511" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H2511" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I2511" t="n">
+        <v>207600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2511"/>
+  <dimension ref="A1:I2512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88329,6 +88329,41 @@
         <v>207600</v>
       </c>
     </row>
+    <row r="2512">
+      <c r="A2512" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2512" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2512" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D2512" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E2512" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F2512" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G2512" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H2512" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="I2512" t="n">
+        <v>47000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2512"/>
+  <dimension ref="A1:I2513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88364,6 +88364,41 @@
         <v>47000</v>
       </c>
     </row>
+    <row r="2513">
+      <c r="A2513" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2513" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2513" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D2513" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E2513" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F2513" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G2513" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H2513" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I2513" t="n">
+        <v>12700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2513"/>
+  <dimension ref="A1:I2514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88399,6 +88399,41 @@
         <v>12700</v>
       </c>
     </row>
+    <row r="2514">
+      <c r="A2514" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2514" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2514" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D2514" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E2514" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2514" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G2514" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H2514" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I2514" t="n">
+        <v>57400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2514"/>
+  <dimension ref="A1:I2515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88434,6 +88434,41 @@
         <v>57400</v>
       </c>
     </row>
+    <row r="2515">
+      <c r="A2515" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2515" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2515" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D2515" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E2515" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F2515" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G2515" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H2515" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I2515" t="n">
+        <v>52500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2515"/>
+  <dimension ref="A1:I2516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88469,6 +88469,41 @@
         <v>52500</v>
       </c>
     </row>
+    <row r="2516">
+      <c r="A2516" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2516" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2516" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D2516" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E2516" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F2516" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G2516" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H2516" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="I2516" t="n">
+        <v>200600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2516"/>
+  <dimension ref="A1:I2517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88504,6 +88504,41 @@
         <v>200600</v>
       </c>
     </row>
+    <row r="2517">
+      <c r="A2517" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2517" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2517" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D2517" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E2517" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2517" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2517" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H2517" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="I2517" t="n">
+        <v>90300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2517"/>
+  <dimension ref="A1:I2518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88539,6 +88539,41 @@
         <v>90300</v>
       </c>
     </row>
+    <row r="2518">
+      <c r="A2518" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2518" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2518" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D2518" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E2518" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2518" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G2518" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2518" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I2518" t="n">
+        <v>162200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2518"/>
+  <dimension ref="A1:I2519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88574,6 +88574,41 @@
         <v>162200</v>
       </c>
     </row>
+    <row r="2519">
+      <c r="A2519" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2519" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2519" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D2519" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E2519" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2519" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G2519" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2519" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I2519" t="n">
+        <v>163500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2519"/>
+  <dimension ref="A1:I2520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88609,6 +88609,41 @@
         <v>163500</v>
       </c>
     </row>
+    <row r="2520">
+      <c r="A2520" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2520" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2520" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D2520" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E2520" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F2520" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G2520" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2520" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I2520" t="n">
+        <v>57900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5007.xlsx
+++ b/data/5007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2520"/>
+  <dimension ref="A1:I2521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88644,6 +88644,41 @@
         <v>57900</v>
       </c>
     </row>
+    <row r="2521">
+      <c r="A2521" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2521" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2521" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="D2521" t="inlineStr">
+        <is>
+          <t>CHINWEL</t>
+        </is>
+      </c>
+      <c r="E2521" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F2521" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G2521" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H2521" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="I2521" t="n">
+        <v>60200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
